--- a/biology/Botanique/Tapirira_guianensis/Tapirira_guianensis.xlsx
+++ b/biology/Botanique/Tapirira_guianensis/Tapirira_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapirira guianensis est une espèce d'arbres néotropicaux de la famille des Anacardiaceae (famille du manguier). Il s'agit de l'espèce type du genre Tapirira Aubl.
-En Guyane, on il est connu sous les noms de Tapirira (Kali'na), Mombin blanc, Mombin faux, Mombin fou, Mombin sauvage, Bois à huile[4] (Créole), Aganiaimaie (Nenge tongo), Tata pilili (Wayãpi), Ara, Ara ahavukuno (Palikur), Pau-pombo,  Tatapiraca (Portugais)[5],[6]. Ses fruits sont appelés Loussé ou Raisin pays[7].
-Au Suriname, on le nomme Doka, Man krappa (Hollandais du Suriname), Witte hoedoe, Anoema latti, Djedoe, Krassi pisie (Sranan tongo), Matta-warie nengé, Djedoe, Matawarie nengidjedoe, Dan lieba, Basa mopé (Saramaka), Warimia, Warimia balli, Dokka (Arawak), Atapiriri, Ata-apiriri, Ann-akara, Dukti, Tamoche-nooitjane-atapiriri, Saprieran, Massé (Karib)[8].
-Au Guyana, c'est Broad leaf/Small leaf waramir, Brown/White warimir (Créole), Duka, Waramia (Arawak), Wataparïrï (Caribe)[9].
-Au Venezuela, on l'appelle Jobillo, Makarinyek, Maro, Palo de mosquito, Patillo, Tapaculo, Zapacuro (Espagnol), Tamú ñe mën (Panaré)[10]
+En Guyane, on il est connu sous les noms de Tapirira (Kali'na), Mombin blanc, Mombin faux, Mombin fou, Mombin sauvage, Bois à huile (Créole), Aganiaimaie (Nenge tongo), Tata pilili (Wayãpi), Ara, Ara ahavukuno (Palikur), Pau-pombo,  Tatapiraca (Portugais),. Ses fruits sont appelés Loussé ou Raisin pays.
+Au Suriname, on le nomme Doka, Man krappa (Hollandais du Suriname), Witte hoedoe, Anoema latti, Djedoe, Krassi pisie (Sranan tongo), Matta-warie nengé, Djedoe, Matawarie nengidjedoe, Dan lieba, Basa mopé (Saramaka), Warimia, Warimia balli, Dokka (Arawak), Atapiriri, Ata-apiriri, Ann-akara, Dukti, Tamoche-nooitjane-atapiriri, Saprieran, Massé (Karib).
+Au Guyana, c'est Broad leaf/Small leaf waramir, Brown/White warimir (Créole), Duka, Waramia (Arawak), Wataparïrï (Caribe).
+Au Venezuela, on l'appelle Jobillo, Makarinyek, Maro, Palo de mosquito, Patillo, Tapaculo, Zapacuro (Espagnol), Tamú ñe mën (Panaré)
 </t>
         </is>
       </c>
@@ -515,12 +527,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapirira guianensis est un arbre de taille moyenne, haut de 10-30 m, pour 60 cm de diamètre, et pouvant développer des contreforts.
 Son écorce est brune à grise, mince, lisse ou très légèrement fissurée, avec une écorce interne résineuse, brun rosâtre à brun rougeâtre.
 Ses rameaux cylindriques, sont grisâtres, avec des lenticelles et des touffes terminales de panicules et de feuilles. 
-Son bois est léger (densité : 0,44 à 0,56), rosé, lustré, souvent ponctué d'exsudations des canaux à résine. Il ressemble beaucoup à celui du genre Tetragastris (Burseraceae)[5],[4].
+Son bois est léger (densité : 0,44 à 0,56), rosé, lustré, souvent ponctué d'exsudations des canaux à résine. Il ressemble beaucoup à celui du genre Tetragastris (Burseraceae),.
 Ses feuilles composées imparipennées (parfois paripennées) à (0)2-5(7) paires de folioles, et longues de 10-46 cm, sont extrêmement variables.
 Le pétiole est cylindrique, souvent aplati ou subcanaliculé dans la partie apicale, brunâtre, pubérulent quand il est jeune, glabrescent.
 L'espace entre les folioles est de 1,5-7 cm.
@@ -540,8 +554,8 @@
 Ils sont de forme obovoïdes, peu pubérulents, plus longs que les pétales, avec 4-5 styles courts disposés symétriquement pour les hermaphrodites. 
 Le fruit est une drupe violet foncé à noire, comestible à maturité (mais peu consommée par l'homme), de forme ovoïde, ellipsoïde à obliquement obovale, portant des restes de styles, et mesurant 0,8–1,8 × 0,5–1,2 cm. 
 L'exocarpe est fin, charnu, comestible, et l'endocarpe fin, ligneux.
-La graine pend au bout d'un funicule apical[8],[6],[5].
-Cette espèce varie considérablement dans le port et la morphologie des feuilles[11], raison pour laquelle les populations distinguent au moins deux types[10].
+La graine pend au bout d'un funicule apical.
+Cette espèce varie considérablement dans le port et la morphologie des feuilles, raison pour laquelle les populations distinguent au moins deux types.
 </t>
         </is>
       </c>
@@ -570,9 +584,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tapirira guianensis est présent du Costa Rica, au Paraguay, en passant par le Panama, la Colombie, Trinidad, le Venezuela, le Guyana, le Suriname, la Guyane, le Équateur, le Pérou, le Brésil, et la Bolivie[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tapirira guianensis est présent du Costa Rica, au Paraguay, en passant par le Panama, la Colombie, Trinidad, le Venezuela, le Guyana, le Suriname, la Guyane, le Équateur, le Pérou, le Brésil, et la Bolivie.
 </t>
         </is>
       </c>
@@ -601,22 +617,24 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Tapirira guianensis est un arbre de taille moyenne, poussant communément dans les forêts secondaires ou anciennes dégradée[7]. Au Venezuela, on le trouve partout (forêts de plaine, forêts de montagne, forêts-galeries semi-décidues, sempervirentes, savanes) à l'exception des hautes montagnes et des régions arides, autour de 0–1 200 m d'altitude[10]. Il fleurit en Guyane en novembre[6].
-Tapirira guianensis est la principale plante hôte de la chenille du papillon Lonomia achelous Cramer. Cette chenille grégaire est venimeuse : elle injecte son venin par ses épines et peut provoquer d'importantes hémorragies potentillement mortelles[10].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tapirira guianensis est un arbre de taille moyenne, poussant communément dans les forêts secondaires ou anciennes dégradée. Au Venezuela, on le trouve partout (forêts de plaine, forêts de montagne, forêts-galeries semi-décidues, sempervirentes, savanes) à l'exception des hautes montagnes et des régions arides, autour de 0–1 200 m d'altitude. Il fleurit en Guyane en novembre.
+Tapirira guianensis est la principale plante hôte de la chenille du papillon Lonomia achelous Cramer. Cette chenille grégaire est venimeuse : elle injecte son venin par ses épines et peut provoquer d'importantes hémorragies potentillement mortelles.
 Divers aspects de Tapirira guianensis ont été étudiés :
-la structure de son charbon de bois[12],
-la biologie de sa reproduction comme espèce dioïque[13],
-les étapes du développement de ses fleurs[14], l'ontogénèse de ses fruits[15], la biologie évolutive de ses organes floraux[16],
-la structure de son fruit et de sa graine[17],
-ses relations avec l'hémiparasite Phoradendron perrottettii[18] (et les conséquences sur sa chimie[19]), et les endophytes fongiques Pseudocercospora sp., Phomopsis sp., Lecanicillium psalliotae dans les feuilles, et Stagonospora sp., Phomopsis sp. dans les tiges[20],
-l'influence du parasitisme de Photadendron crassifolium sur l'embolie de ses vaisceaux conducteurs[21]
-l'influence de la luminosité sur sa croissance[22],
-les effets de la fragmentation forestière sur la génétique de ses populations[23],
-les effets de la teneur d'Aluminium dans le sol sur son développement (Tapirira guianensis est hautement tolérant à l'Aluminium  grâce à l'émission de substances organiques aux propriétés chélatrices, qui modifient sa toxicité dans le milieu)[24],
-sa culture in vitro[25],
-les effets du séchage des graines sur leur pouvoir germinatif[26],
+la structure de son charbon de bois,
+la biologie de sa reproduction comme espèce dioïque,
+les étapes du développement de ses fleurs, l'ontogénèse de ses fruits, la biologie évolutive de ses organes floraux,
+la structure de son fruit et de sa graine,
+ses relations avec l'hémiparasite Phoradendron perrottettii (et les conséquences sur sa chimie), et les endophytes fongiques Pseudocercospora sp., Phomopsis sp., Lecanicillium psalliotae dans les feuilles, et Stagonospora sp., Phomopsis sp. dans les tiges,
+l'influence du parasitisme de Photadendron crassifolium sur l'embolie de ses vaisceaux conducteurs
+l'influence de la luminosité sur sa croissance,
+les effets de la fragmentation forestière sur la génétique de ses populations,
+les effets de la teneur d'Aluminium dans le sol sur son développement (Tapirira guianensis est hautement tolérant à l'Aluminium  grâce à l'émission de substances organiques aux propriétés chélatrices, qui modifient sa toxicité dans le milieu),
+sa culture in vitro,
+les effets du séchage des graines sur leur pouvoir germinatif,
 etc.</t>
         </is>
       </c>
@@ -645,25 +663,27 @@
           <t>Usage</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapirira guianensis est connu de toutes les populations pour ses fruits comestibles et sucrés, principalement consommés par les enfants. 
-En Guyane, son écorce sert à confectionner un remède Wayãpi contre le muguet des enfants : la sève des fins copeaux d'écorce interne est appliquée dans la bouche des enfants[7].
-Chez les populations amérindiennes du Guyana, l'écorce interne visqueuse est grattée et appliquée sur les plaies et les coupures pour désinfecter et arrêter le saignement. L'écorce est parfois mélangée à un cataplasme de tige de bananier noir (Musa sp.) dans le même but. Les plaies sont lavées avec une décoction d'écorce interne. À Barama, les jeunes troncs droits sont utilisés comme poutres de maison et comme poteaux verticaux pour tisser des hamacs. Le bois est généralement utilisé comme bois de chauffe[9].
-Les fruits renferment des dérivés d'hydroquinone et des cyclohexanones cytotoxiques[27].
-Tapirira guianensis est une plante mellifère importante en Amazonie[28].
-On peut facilement travailler et polir le bois de Tapirira guianensis. On l'utilise localement pour fabriquer des planches, planchers et des murs, mais il faut absolument le traiter pour tout usage car il est périssable (il se décompose rapidement au soleil et à la pluie)[9]. On peut aussi le dérouler[5]. Il pourrait être employé pour la pâte à papier.
-L'extrait de ses feuilles présente des propriétés vasodilatrice et antioxydantes[29],
-inhibiteurs des gélatinases[30],
-et contient des Polyphénols aux propriétés antioxydantes[31],
-et des flavonoïdes aux effets vasodilatateurs et inhibiteurs de la myéloperoxydase[32].
-L'extrait d'écorce contient des polyols alkyliques cycliques, qui présentent des propriétés anti-leishmaniennes, anti-plasmodiale, antibactérienne (sur Staphylococcus aureus, S. epidermidis et Escherichia coli) et antifongique (Candida albicans)[33] :
+En Guyane, son écorce sert à confectionner un remède Wayãpi contre le muguet des enfants : la sève des fins copeaux d'écorce interne est appliquée dans la bouche des enfants.
+Chez les populations amérindiennes du Guyana, l'écorce interne visqueuse est grattée et appliquée sur les plaies et les coupures pour désinfecter et arrêter le saignement. L'écorce est parfois mélangée à un cataplasme de tige de bananier noir (Musa sp.) dans le même but. Les plaies sont lavées avec une décoction d'écorce interne. À Barama, les jeunes troncs droits sont utilisés comme poutres de maison et comme poteaux verticaux pour tisser des hamacs. Le bois est généralement utilisé comme bois de chauffe.
+Les fruits renferment des dérivés d'hydroquinone et des cyclohexanones cytotoxiques.
+Tapirira guianensis est une plante mellifère importante en Amazonie.
+On peut facilement travailler et polir le bois de Tapirira guianensis. On l'utilise localement pour fabriquer des planches, planchers et des murs, mais il faut absolument le traiter pour tout usage car il est périssable (il se décompose rapidement au soleil et à la pluie). On peut aussi le dérouler. Il pourrait être employé pour la pâte à papier.
+L'extrait de ses feuilles présente des propriétés vasodilatrice et antioxydantes,
+inhibiteurs des gélatinases,
+et contient des Polyphénols aux propriétés antioxydantes,
+et des flavonoïdes aux effets vasodilatateurs et inhibiteurs de la myéloperoxydase.
+L'extrait d'écorce contient des polyols alkyliques cycliques, qui présentent des propriétés anti-leishmaniennes, anti-plasmodiale, antibactérienne (sur Staphylococcus aureus, S. epidermidis et Escherichia coli) et antifongique (Candida albicans) :
 4,6,2′-trihydroxy-6-[10′(Z)-heptadécényl]-1-cyclohexène-2-one ;
 1,4,6-trihydroxy-1,2′-époxy-6-[10′(Z)-heptadécényl]-2-cyclohexène ;
 1,4,5,2′-tétrahydroxy-1-[ 10′(Z)-heptadécényl]-2-cyclohexène ;
 1,3,4,6-tétrahydroxy-1,2′-époxy-6-[10′(Z)-heptadécényl]-cyclohexane.
-Les extraits de fleurs et de graines de Tapirira guianensis contienent notamment des quercetines et de l'acide gallique qui présentent une activité cytotoxique[34].
-L'extrait de Tapirira guianensis inhibe la prolifération des cellules tumorales de cancer de la bouche[35].
+Les extraits de fleurs et de graines de Tapirira guianensis contienent notamment des quercetines et de l'acide gallique qui présentent une activité cytotoxique.
+L'extrait de Tapirira guianensis inhibe la prolifération des cellules tumorales de cancer de la bouche.
 </t>
         </is>
       </c>
@@ -692,11 +712,13 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La composition de son huile essentielle a été analysée : elle varie selon son origine[36].
-On a trouvé des terpènes notamment flavonoïdes et norisoprénoïdes dans les feuilles de Tapirira guianensis[37]
-Dans son écorce, on a isolé des beta-sitostérol[38] : 3beta-O-beta-D-glucopyranosyl-sitosterol, sitostenone, et stigmast-4-en-6beta-ol-3-one.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La composition de son huile essentielle a été analysée : elle varie selon son origine.
+On a trouvé des terpènes notamment flavonoïdes et norisoprénoïdes dans les feuilles de Tapirira guianensis
+Dans son écorce, on a isolé des beta-sitostérol : 3beta-O-beta-D-glucopyranosyl-sitosterol, sitostenone, et stigmast-4-en-6beta-ol-3-one.
 </t>
         </is>
       </c>
@@ -725,9 +747,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[39] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « TAPIRIRA Guianenſis.  (Tabula 188.)
 Arbor trunco quinquaginta-pedali ; ramos plures, in ſummitate emittens, hínc &amp; indè ſparſos, centrales erectos. Folia alterna, imparipinnata, foliolis ſuboppoſitis tribus, quatuor aut quinque, utrinque coſtæ adnexis, inferioribus minoribus, omnibus ovato-oblongis, acuminatis, integerrimis, glabris. Flores paniculati, axillares &amp; terminales.
 Florebat Novembri ; fructum ferebat Aprili.
